--- a/products0103.xlsx
+++ b/products0103.xlsx
@@ -18,7 +18,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="242">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="245">
+  <x:si>
+    <x:t>一磅</x:t>
+  </x:si>
   <x:si>
     <x:t>不酸</x:t>
   </x:si>
@@ -26,724 +29,730 @@
     <x:t>紫風鈴</x:t>
   </x:si>
   <x:si>
+    <x:t>蒲隆地</x:t>
+  </x:si>
+  <x:si>
+    <x:t>肯亞</x:t>
+  </x:si>
+  <x:si>
+    <x:t>磨粉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>吉格薩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>淺焙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>教父</x:t>
+  </x:si>
+  <x:si>
+    <x:t>豆單</x:t>
+  </x:si>
+  <x:si>
+    <x:t>酸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>牧羊犬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>獅子王</x:t>
+  </x:si>
+  <x:si>
+    <x:t>莫札特</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中深焙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>明亮酸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水洗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>柔和酸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美洲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>蜜處理</x:t>
+  </x:si>
+  <x:si>
+    <x:t>亞洲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>奧茲瑪</x:t>
+  </x:si>
+  <x:si>
+    <x:t>柯契爾</x:t>
+  </x:si>
+  <x:si>
+    <x:t>半磅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>特殊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>塔拉珠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>熱紅酒</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小獵犬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中淺焙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>牧羊人</x:t>
+  </x:si>
+  <x:si>
     <x:t>糖老鴨</x:t>
   </x:si>
   <x:si>
-    <x:t>美洲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>明亮酸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>半磅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>亞洲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>淺焙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>熱紅酒</x:t>
-  </x:si>
-  <x:si>
-    <x:t>牧羊犬</x:t>
+    <x:t>貝多芬</x:t>
   </x:si>
   <x:si>
     <x:t>中焙</x:t>
   </x:si>
   <x:si>
-    <x:t>一磅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>柯契爾</x:t>
-  </x:si>
-  <x:si>
-    <x:t>中淺焙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>柔和酸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>小獵犬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>肯亞</x:t>
-  </x:si>
-  <x:si>
-    <x:t>蒲隆地</x:t>
-  </x:si>
-  <x:si>
-    <x:t>塔拉珠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>吉格薩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>酸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>莫札特</x:t>
-  </x:si>
-  <x:si>
-    <x:t>獅子王</x:t>
-  </x:si>
-  <x:si>
-    <x:t>磨粉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>水洗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>教父</x:t>
+    <x:t>原豆</x:t>
   </x:si>
   <x:si>
     <x:t>非洲</x:t>
   </x:si>
   <x:si>
-    <x:t>牧羊人</x:t>
-  </x:si>
-  <x:si>
     <x:t>日曬</x:t>
   </x:si>
   <x:si>
     <x:t>花神</x:t>
   </x:si>
   <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>豆單</x:t>
-  </x:si>
-  <x:si>
-    <x:t>特殊</x:t>
-  </x:si>
-  <x:si>
-    <x:t>奧茲瑪</x:t>
-  </x:si>
-  <x:si>
-    <x:t>蜜處理</x:t>
-  </x:si>
-  <x:si>
-    <x:t>貝多芬</x:t>
-  </x:si>
-  <x:si>
     <x:t>桃樂絲</x:t>
   </x:si>
   <x:si>
-    <x:t>中深焙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>原豆</x:t>
+    <x:t>奶油可可、烤堅果、紅糖、甜感佳。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>焦糖、柑橘皮、清爽的甜感和茶的尾韻。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>紅葡萄、楓糖，果汁感，甜感飽滿。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>細緻花香、金桔檸檬、葡萄柚的明亮酸甜。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香水檸檬、佛手柑的前段香氣，風味強烈。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>葡萄、果乾、焦糖的甜感，口感乾淨厚實。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>柑橘、李子、麥芽糖、有著厚實圓的風味。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>聖塔安娜火山 雷納斯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>哥倫比亞 蘭姆酒桶</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_grind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>哥斯大黎加 芒果莊園</x:t>
+  </x:si>
+  <x:si>
+    <x:t>西達摩 桃子甜心</x:t>
+  </x:si>
+  <x:si>
+    <x:t>尼加拉瓜 米耶瑞詡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>斯里蘭卡的調酒師</x:t>
+  </x:si>
+  <x:si>
+    <x:t>哥斯大黎加 小蜜蜂</x:t>
+  </x:si>
+  <x:si>
+    <x:t>凱薩路易斯 火山藝伎</x:t>
+  </x:si>
+  <x:si>
+    <x:t>parent_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>哥斯大黎加 寶藏莊園</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>耶加雪菲 晨之莓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_flavor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_area</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cat_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_bake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>你說陽光會在風雨後</x:t>
+  </x:si>
+  <x:si>
+    <x:t>耶加雪啡 荷芙莎</x:t>
+  </x:si>
+  <x:si>
+    <x:t>薩爾瓦多 聖伊蓮娜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>葡萄酒香、辛香料、黑巧克力、香草植物、桃子的香氣。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>綠葡萄、香草、草莓、甜瓜、柑橘香氣，紅石榴果汁酸香。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>豐富的水果酸甜感，帶黑莓和柑橘風味，明亮多層次。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>帶果乾風味，奶油堅果般的中等口感，尾韻是麥芽糖的餘韻。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>榛果、奶油、 楓糖，蘋果般酸質，Body細緻黏稠。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水仙帶有與其他水洗一樣的清爽酸質，圓潤醇度、尾韻回甘。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>果乾與烤堅果風味，帶有滑順口感，是一隻清爽的蜜處理。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>深色莓果的酸甜，和巧可力的調性，尾韻透出微醺的酒香</x:t>
+  </x:si>
+  <x:si>
+    <x:t>可可酒香、熱帶水果、口感豐厚飽滿、日曬風味強勁紮實。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>濃郁醇厚的口感，菸草和黑巧克力的餘韻，苦中回甘。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>甜度、稠度、厚度相當良好，有著類似香蕉乾的熟果甜味。</x:t>
   </x:si>
   <x:si>
     <x:t>帶著太妃糖甜感，冷卻時會有生巧克力且明亮細緻的酸質。</x:t>
   </x:si>
   <x:si>
+    <x:t>烤堅果、花生醬的風味，苦甜厚實，更適合加奶飲用。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香草、奶油、烤堅果、口感醇厚、風味紮實、甜度佳。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>烘烤核果、奶油、紅糖、果乾、甜水果調、酸甜感圓潤甜蜜。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>溫度高時有著草莓和百香果的酸感，溫度降低時帶有點酒香。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>焦糖核桃風味，帶有明亮的果酸，帶些許的肉桂與葡萄酒香。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>深色漿果、檀香、橘子皮、茉莉、甜熱帶水果、優雅濃郁。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>碧雅莊園藝妓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>果丁丁特選</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>莓橘小姐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>鳳凰舞妓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>麥芽糖風笛手</x:t>
+  </x:si>
+  <x:si>
+    <x:t>雪冽圖山梨花</x:t>
+  </x:si>
+  <x:si>
+    <x:t>曼巴頓練習曲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>熱銷排行</x:t>
+  </x:si>
+  <x:si>
+    <x:t>雪冽圖 山梨花</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水果藝伎嘉年華</x:t>
+  </x:si>
+  <x:si>
+    <x:t>牙買加 藍山</x:t>
+  </x:si>
+  <x:si>
+    <x:t>巨石莊園 藝妓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>可可森巴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>耶加雪啡荷芙莎</x:t>
+  </x:si>
+  <x:si>
+    <x:t>以酸度分類</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水果風華</x:t>
+  </x:si>
+  <x:si>
+    <x:t>咖啡器材</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.2磅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>夏日山亭微醺夢</x:t>
+  </x:si>
+  <x:si>
+    <x:t>耶加雪菲 班可</x:t>
+  </x:si>
+  <x:si>
+    <x:t>碧雅莊園 藝妓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>耶加雪菲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>以洲別分類</x:t>
+  </x:si>
+  <x:si>
+    <x:t>嚴選商品</x:t>
+  </x:si>
+  <x:si>
+    <x:t>以烘培度分類</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cat_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>以處理法分類</x:t>
+  </x:si>
+  <x:si>
+    <x:t>薇薇特南果</x:t>
+  </x:si>
+  <x:si>
+    <x:t>古吉 水仙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黑櫻桃、葡萄柚、可可粉、降溫後出現芭樂、綜合蔬果汁風味。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>奶油白花的前段香味，葡萄、桃子等水果風味，帶有滑順的口感。</x:t>
+  </x:si>
+  <x:si>
     <x:t>綿延的肉桂香氣是整體的風味主軸，尾韻呈現乾淨而溫和的甜感。</x:t>
   </x:si>
   <x:si>
     <x:t>柑橘和紅色莓果的風味，水果酸值明亮。降溫後紅糖的尾韻延續。</x:t>
   </x:si>
   <x:si>
+    <x:t>麥芽糖及焦糖甜感，低溫出現柔和的果酸，每個溫層的變化豐富。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>入口深色莓果和橘皮，最後焦糖及烏龍茶香，口感層次豐富、順口。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>撲鼻而來的是草莓果醬、濃郁木瓜牛奶、帶有起司的濃郁、及優格。</x:t>
+  </x:si>
+  <x:si>
     <x:t>會有強烈的花香氣，飲用時清爽醇厚的口感，尾韻帶著溫帶水果風。</x:t>
   </x:si>
   <x:si>
+    <x:t>細緻的花香、酸梅汁般的酸甜感，降溫之後出現深色莓果的風味。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>烤堅果為主軸，伴隨著麥芽糖的清甜感，茶的綿長尾韻，清爽細膩。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>在溫度稍微下降，哈密瓜精緻的風味出現，整體清爽、酸值迷人。</x:t>
+  </x:si>
+  <x:si>
     <x:t>在深焙的烘焙程度下，帶出豐厚的油脂感，烤堅果和可可的苦甜。</x:t>
   </x:si>
   <x:si>
-    <x:t>烤堅果為主軸，伴隨著麥芽糖的清甜感，茶的綿長尾韻，清爽細膩。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>奶油白花的前段香味，葡萄、桃子等水果風味，帶有滑順的口感。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>麥芽糖及焦糖甜感，低溫出現柔和的果酸，每個溫層的變化豐富。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>黑櫻桃、葡萄柚、可可粉、降溫後出現芭樂、綜合蔬果汁風味。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>撲鼻而來的是草莓果醬、濃郁木瓜牛奶、帶有起司的濃郁、及優格。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>細緻的花香、酸梅汁般的酸甜感，降溫之後出現深色莓果的風味。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>入口深色莓果和橘皮，最後焦糖及烏龍茶香，口感層次豐富、順口。</x:t>
-  </x:si>
-  <x:si>
     <x:t>成熟蘋果、黑醋栗等深色水果、些許肉桂、奶油和香檳的尾韻。</x:t>
   </x:si>
   <x:si>
-    <x:t>在溫度稍微下降，哈密瓜精緻的風味出現，整體清爽、酸值迷人。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>豐富的水果酸甜感，帶黑莓和柑橘風味，明亮多層次。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>果乾與烤堅果風味，帶有滑順口感，是一隻清爽的蜜處理。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>烘烤核果、奶油、紅糖、果乾、甜水果調、酸甜感圓潤甜蜜。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>綠葡萄、香草、草莓、甜瓜、柑橘香氣，紅石榴果汁酸香。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>濃郁醇厚的口感，菸草和黑巧克力的餘韻，苦中回甘。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>香草、奶油、烤堅果、口感醇厚、風味紮實、甜度佳。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>葡萄酒香、辛香料、黑巧克力、香草植物、桃子的香氣。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>甜度、稠度、厚度相當良好，有著類似香蕉乾的熟果甜味。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>榛果、奶油、 楓糖，蘋果般酸質，Body細緻黏稠。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>深色莓果的酸甜，和巧可力的調性，尾韻透出微醺的酒香</x:t>
-  </x:si>
-  <x:si>
-    <x:t>帶果乾風味，奶油堅果般的中等口感，尾韻是麥芽糖的餘韻。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>焦糖核桃風味，帶有明亮的果酸，帶些許的肉桂與葡萄酒香。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>水仙帶有與其他水洗一樣的清爽酸質，圓潤醇度、尾韻回甘。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>可可酒香、熱帶水果、口感豐厚飽滿、日曬風味強勁紮實。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>溫度高時有著草莓和百香果的酸感，溫度降低時帶有點酒香。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>烤堅果、花生醬的風味，苦甜厚實，更適合加奶飲用。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>深色漿果、檀香、橘子皮、茉莉、甜熱帶水果、優雅濃郁。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>碧雅莊園 藝妓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>以洲別分類</x:t>
-  </x:si>
-  <x:si>
-    <x:t>咖啡器材</x:t>
-  </x:si>
-  <x:si>
-    <x:t>嚴選商品</x:t>
-  </x:si>
-  <x:si>
-    <x:t>牙買加 藍山</x:t>
-  </x:si>
-  <x:si>
-    <x:t>水果藝伎嘉年華</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.2磅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>雪冽圖 山梨花</x:t>
-  </x:si>
-  <x:si>
-    <x:t>夏日山亭微醺夢</x:t>
-  </x:si>
-  <x:si>
-    <x:t>鳳凰舞妓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>以酸度分類</x:t>
-  </x:si>
-  <x:si>
-    <x:t>水果風華</x:t>
-  </x:si>
-  <x:si>
-    <x:t>果丁丁特選</x:t>
-  </x:si>
-  <x:si>
-    <x:t>曼巴頓練習曲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>熱銷排行</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cat_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>以烘培度分類</x:t>
-  </x:si>
-  <x:si>
-    <x:t>薇薇特南果</x:t>
-  </x:si>
-  <x:si>
-    <x:t>巨石莊園 藝妓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>麥芽糖風笛手</x:t>
-  </x:si>
-  <x:si>
-    <x:t>耶加雪菲 班可</x:t>
-  </x:si>
-  <x:si>
-    <x:t>莓橘小姐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>可可森巴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>以處理法分類</x:t>
-  </x:si>
-  <x:si>
-    <x:t>古吉 水仙</x:t>
-  </x:si>
-  <x:si>
-    <x:t>耶加雪菲</x:t>
+    <x:t>./img/beans_s_009.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_027.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_023.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_008.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_013.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_010.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_024.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_031.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_030.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_026.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_002.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_033.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_031.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_020.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_015.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_014.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_041.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_011.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_025.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_018.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_034.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_026.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_021.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_036.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_045.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_025.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_006.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_045.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>玫瑰花、荔枝、豐富的熱帶水果、奶油厚實的口感。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_040.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_019.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_039.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_043.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_002.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_022.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_018.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_022.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_019.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_034.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>酒香、黑莓、蔓越莓，帶有特殊的熱帶水果香氣。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_020.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_035.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黑色莓果、熱帶水果風味，尾韻是乾淨的茶香。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_033.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_032.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_024.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>豐富的水果調性，帶有些許發酵酒與果乾風味。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_021.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_027.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_023.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_050.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_028.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_029.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_030.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_038.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_032.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>檸檬、橙色水果、小紅莓、口感滑順、酸甜感平衡。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_004.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_048.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_046.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_028.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_005.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_004.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_036.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_037.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>蘭姆酒、麝香葡萄、櫻桃、核果、 酒香巧克力。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_044.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_040.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_003.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_038.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_029.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_042.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>典型耶加雪菲風味，莓果和些許茶感，細膩優雅。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_041.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_046.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_044.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_039.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_037.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>橘子、白葡萄、花香、蜂蜜般的甜感、些許的酒味。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_014.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_016.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_043.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_001.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_012.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_007.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_006.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_047.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_042.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_048.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_049.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_007.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_050.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>柑橘、草莓果醬、芒果乾、尾韻有綜合莓果調。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_001.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_003.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_047.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_049.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_005.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_016.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_035.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_008.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_013.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_s_017.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_012.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_015.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_009.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_017.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_010.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>./img/beans_l_011.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_process</x:t>
+  </x:si>
+  <x:si>
+    <x:t>莓果、奶油、核果、巧克力。</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">古吉罕貝拉 布榖阿貝兒 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>prod_thumbnail</x:t>
   </x:si>
   <x:si>
     <x:t>適合加奶，可可、堅果、甜感足。</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">古吉罕貝拉 布榖阿貝兒 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_process</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_thumbnail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>莓果、奶油、核果、巧克力。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_025.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_018.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_024.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_018.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_027.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_026.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_025.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_023.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_027.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_019.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_021.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_020.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_021.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_019.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_022.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>黑色莓果、熱帶水果風味，尾韻是乾淨的茶香。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_024.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_022.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_020.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_023.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_029.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_026.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_028.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_041.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_030.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_028.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_043.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_031.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_031.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_036.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_030.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_035.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_033.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_032.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_039.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_038.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>豐富的水果調性，帶有些許發酵酒與果乾風味。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_042.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_038.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_034.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>酒香、黑莓、蔓越莓，帶有特殊的熱帶水果香氣。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_037.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_034.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_041.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_033.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_040.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_039.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_036.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>檸檬、橙色水果、小紅莓、口感滑順、酸甜感平衡。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_029.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_037.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_040.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_032.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_001.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_007.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_035.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_044.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>柑橘、草莓果醬、芒果乾、尾韻有綜合莓果調。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_044.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_043.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>蘭姆酒、麝香葡萄、櫻桃、核果、 酒香巧克力。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_048.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_045.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_046.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_042.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_048.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_049.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_047.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_050.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_001.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_049.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_002.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_046.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>典型耶加雪菲風味，莓果和些許茶感，細膩優雅。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_045.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_047.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_003.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_050.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_007.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>橘子、白葡萄、花香、蜂蜜般的甜感、些許的酒味。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_004.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_005.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_004.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_009.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_010.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>玫瑰花、荔枝、豐富的熱帶水果、奶油厚實的口感。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_006.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_005.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_003.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_002.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_006.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_008.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_010.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_008.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_013.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_012.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_012.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_013.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_011.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_009.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_016.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_016.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_017.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_017.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_014.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_015.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_015.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_l_014.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>./img/beans_s_011.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>耶加雪啡 荷芙莎</x:t>
-  </x:si>
-  <x:si>
-    <x:t>西達摩 桃子甜心</x:t>
-  </x:si>
-  <x:si>
-    <x:t>尼加拉瓜 米耶瑞詡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>哥倫比亞 蘭姆酒桶</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>哥斯大黎加 寶藏莊園</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_area</x:t>
-  </x:si>
-  <x:si>
-    <x:t>耶加雪菲 晨之莓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>哥斯大黎加 小蜜蜂</x:t>
-  </x:si>
-  <x:si>
-    <x:t>你說陽光會在風雨後</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>聖塔安娜火山 雷納斯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_flavor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cat_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_bake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>凱薩路易斯 火山藝伎</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>parent_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>薩爾瓦多 聖伊蓮娜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>哥斯大黎加 芒果莊園</x:t>
-  </x:si>
-  <x:si>
-    <x:t>斯里蘭卡的調酒師</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_grind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>奶油可可、烤堅果、紅糖、甜感佳。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prod_description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>細緻花香、金桔檸檬、葡萄柚的明亮酸甜。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>葡萄、果乾、焦糖的甜感，口感乾淨厚實。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>香水檸檬、佛手柑的前段香氣，風味強烈。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>焦糖、柑橘皮、清爽的甜感和茶的尾韻。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>紅葡萄、楓糖，果汁感，甜感飽滿。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>柑橘、李子、麥芽糖、有著厚實圓的風味。</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1577,7 +1586,7 @@
   <x:dimension ref="A1:D201"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G7" activeCellId="0" sqref="G7:G7"/>
+      <x:selection activeCell="G9" activeCellId="0" sqref="G9:G9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="14.15"/>
@@ -1590,30 +1599,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" t="s">
-        <x:v>86</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B1" s="5" t="s">
-        <x:v>225</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>76</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>222</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4" ht="15.85">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4" customFormat="1" ht="15.85">
       <x:c r="A2">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C2">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>70</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" ht="15.85">
@@ -1621,13 +1630,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4" ht="15.85">
@@ -1635,13 +1644,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C4">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4" ht="15.85">
@@ -1649,13 +1658,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B5" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4" ht="15.85">
@@ -1663,13 +1672,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>79</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4" ht="15.85">
@@ -1677,13 +1686,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B7" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>75</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4" ht="15.85">
@@ -1691,13 +1700,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C8">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>232</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4" ht="15.85">
@@ -1705,13 +1714,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B9" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C9">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>211</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4" ht="15.85">
@@ -1719,13 +1728,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C10">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>78</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4" ht="15.85">
@@ -1733,13 +1742,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C11">
         <x:v>23</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4" ht="15.85">
@@ -1747,13 +1756,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B12" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C12">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>95</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4" ht="15.85">
@@ -1761,13 +1770,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B13" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C13">
         <x:v>38</x:v>
       </x:c>
       <x:c r="D13" t="s">
-        <x:v>230</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4" ht="15.85">
@@ -1775,13 +1784,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B14" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C14">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D14" t="s">
-        <x:v>91</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4" ht="15.85">
@@ -1789,13 +1798,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B15" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C15">
         <x:v>43</x:v>
       </x:c>
       <x:c r="D15" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4" ht="15.85">
@@ -1803,13 +1812,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C16">
         <x:v>44</x:v>
       </x:c>
       <x:c r="D16" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4" ht="15.85">
@@ -1817,13 +1826,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B17" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C17">
         <x:v>49</x:v>
       </x:c>
       <x:c r="D17" t="s">
-        <x:v>80</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4" ht="14.949999999999999">
@@ -1831,13 +1840,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B18" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C18">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D18" t="s">
-        <x:v>96</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4" ht="14.949999999999999">
@@ -1845,13 +1854,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B19" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C19">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D19" t="s">
-        <x:v>219</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4" ht="14.949999999999999">
@@ -1859,13 +1868,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B20" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C20">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D20" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4" ht="14.949999999999999">
@@ -1873,13 +1882,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B21" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C21">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D21" t="s">
-        <x:v>89</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4" ht="14.949999999999999">
@@ -1887,13 +1896,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B22" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C22">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D22" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4" ht="14.949999999999999">
@@ -1901,13 +1910,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B23" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C23">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D23" t="s">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4" ht="14.949999999999999">
@@ -1915,13 +1924,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B24" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C24">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D24" t="s">
-        <x:v>216</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4" ht="14.949999999999999">
@@ -1929,13 +1938,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B25" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C25">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D25" t="s">
-        <x:v>220</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4" ht="14.949999999999999">
@@ -1943,13 +1952,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B26" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C26">
         <x:v>26</x:v>
       </x:c>
       <x:c r="D26" t="s">
-        <x:v>231</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4" ht="14.949999999999999">
@@ -1957,13 +1966,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B27" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C27">
         <x:v>27</x:v>
       </x:c>
       <x:c r="D27" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4" ht="14.949999999999999">
@@ -1971,13 +1980,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B28" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C28">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D28" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4" ht="14.949999999999999">
@@ -1985,13 +1994,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B29" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C29">
         <x:v>34</x:v>
       </x:c>
       <x:c r="D29" t="s">
-        <x:v>227</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4" ht="14.949999999999999">
@@ -1999,13 +2008,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B30" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C30">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D30" t="s">
-        <x:v>82</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4" ht="14.949999999999999">
@@ -2013,13 +2022,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B31" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C31">
         <x:v>41</x:v>
       </x:c>
       <x:c r="D31" t="s">
-        <x:v>213</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4" ht="14.949999999999999">
@@ -2027,13 +2036,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B32" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C32">
         <x:v>48</x:v>
       </x:c>
       <x:c r="D32" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4" ht="15.85">
@@ -2041,13 +2050,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B33" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C33">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D33" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4" ht="15.85">
@@ -2055,13 +2064,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B34" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C34">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D34" t="s">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4" ht="15.85">
@@ -2069,13 +2078,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B35" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C35">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D35" t="s">
-        <x:v>221</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4" ht="15.85">
@@ -2083,13 +2092,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B36" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C36">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D36" t="s">
-        <x:v>15</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4" ht="15.85">
@@ -2097,13 +2106,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B37" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C37">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D37" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4" ht="15.85">
@@ -2111,13 +2120,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B38" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C38">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D38" t="s">
-        <x:v>2</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4" ht="15.85">
@@ -2125,13 +2134,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B39" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C39">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D39" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4" ht="15.85">
@@ -2139,13 +2148,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B40" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C40">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D40" t="s">
-        <x:v>223</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4" ht="15.85">
@@ -2153,13 +2162,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B41" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C41">
         <x:v>40</x:v>
       </x:c>
       <x:c r="D41" t="s">
-        <x:v>212</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4" ht="15.85">
@@ -2167,13 +2176,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B42" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C42">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D42" t="s">
-        <x:v>74</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4" ht="15.85">
@@ -2181,13 +2190,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B43" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C43">
         <x:v>46</x:v>
       </x:c>
       <x:c r="D43" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4" ht="15.85">
@@ -2195,13 +2204,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B44" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C44">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D44" t="s">
-        <x:v>214</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4" ht="15.85">
@@ -2209,13 +2218,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B45" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C45">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D45" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4" ht="15.1">
@@ -2223,13 +2232,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B46" s="8" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C46">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D46" t="s">
-        <x:v>84</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4" ht="15.1">
@@ -2237,13 +2246,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B47" s="8" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C47">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D47" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:4" ht="15.1">
@@ -2251,13 +2260,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B48" s="8" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C48">
         <x:v>29</x:v>
       </x:c>
       <x:c r="D48" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:4" ht="15.1">
@@ -2265,13 +2274,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B49" s="8" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C49">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D49" t="s">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:4" ht="15.1">
@@ -2279,13 +2288,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B50" s="8" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C50">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D50" t="s">
-        <x:v>93</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:4" ht="15.1">
@@ -2293,13 +2302,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B51" s="8" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C51">
         <x:v>35</x:v>
       </x:c>
       <x:c r="D51" t="s">
-        <x:v>98</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:4" ht="15.85">
@@ -2307,13 +2316,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B52" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C52">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D52" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:4" ht="15.85">
@@ -2321,13 +2330,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B53" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C53">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D53" t="s">
-        <x:v>70</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:4" ht="15.85">
@@ -2335,13 +2344,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B54" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C54">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D54" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:4" ht="15.85">
@@ -2349,13 +2358,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B55" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C55">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D55" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:4" ht="15.85">
@@ -2363,13 +2372,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B56" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C56">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D56" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:4" ht="15.85">
@@ -2377,13 +2386,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B57" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C57">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D57" t="s">
-        <x:v>89</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:4" ht="15.85">
@@ -2391,13 +2400,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B58" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C58">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D58" t="s">
-        <x:v>232</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:4" ht="15.85">
@@ -2405,13 +2414,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B59" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C59">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D59" t="s">
-        <x:v>15</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:4" ht="15.85">
@@ -2419,13 +2428,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B60" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C60">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D60" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:4" ht="15.85">
@@ -2433,13 +2442,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B61" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C61">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D61" t="s">
-        <x:v>216</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:4" ht="15.85">
@@ -2447,13 +2456,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B62" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C62">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D62" t="s">
-        <x:v>220</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:4" ht="15.85">
@@ -2461,13 +2470,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B63" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C63">
         <x:v>26</x:v>
       </x:c>
       <x:c r="D63" t="s">
-        <x:v>231</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:4" ht="15.85">
@@ -2475,13 +2484,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B64" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C64">
         <x:v>27</x:v>
       </x:c>
       <x:c r="D64" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:4" ht="15.85">
@@ -2489,13 +2498,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B65" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C65">
         <x:v>29</x:v>
       </x:c>
       <x:c r="D65" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:4" ht="15.85">
@@ -2503,13 +2512,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B66" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C66">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D66" t="s">
-        <x:v>2</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:4" ht="15.85">
@@ -2517,13 +2526,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B67" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C67">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D67" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:4" ht="15.85">
@@ -2531,13 +2540,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B68" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C68">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D68" t="s">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:4" ht="15.85">
@@ -2545,13 +2554,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B69" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C69">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D69" t="s">
-        <x:v>93</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:4" ht="15.85">
@@ -2559,13 +2568,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B70" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C70">
         <x:v>34</x:v>
       </x:c>
       <x:c r="D70" t="s">
-        <x:v>227</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:4" ht="15.85">
@@ -2573,13 +2582,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B71" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C71">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D71" t="s">
-        <x:v>82</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:4" ht="15.85">
@@ -2587,13 +2596,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B72" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C72">
         <x:v>38</x:v>
       </x:c>
       <x:c r="D72" t="s">
-        <x:v>230</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:4" ht="15.85">
@@ -2601,13 +2610,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B73" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C73">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D73" t="s">
-        <x:v>223</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:4" ht="15.85">
@@ -2615,13 +2624,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B74" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C74">
         <x:v>41</x:v>
       </x:c>
       <x:c r="D74" t="s">
-        <x:v>213</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:4" ht="15.85">
@@ -2629,13 +2638,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B75" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C75">
         <x:v>44</x:v>
       </x:c>
       <x:c r="D75" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:4" ht="15.85">
@@ -2643,13 +2652,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B76" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C76">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D76" t="s">
-        <x:v>74</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:4" ht="15.85">
@@ -2657,13 +2666,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B77" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C77">
         <x:v>46</x:v>
       </x:c>
       <x:c r="D77" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:4" ht="15.85">
@@ -2671,13 +2680,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B78" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C78">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D78" t="s">
-        <x:v>214</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:4" ht="15.85">
@@ -2685,13 +2694,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B79" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C79">
         <x:v>48</x:v>
       </x:c>
       <x:c r="D79" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:4" ht="14.949999999999999">
@@ -2699,13 +2708,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B80" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C80">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D80" t="s">
-        <x:v>96</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:4" ht="14.949999999999999">
@@ -2713,13 +2722,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B81" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C81">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D81" t="s">
-        <x:v>219</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:4" ht="14.949999999999999">
@@ -2727,13 +2736,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B82" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C82">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D82" t="s">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:4" ht="14.949999999999999">
@@ -2741,13 +2750,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B83" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C83">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D83" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:4" ht="14.949999999999999">
@@ -2755,13 +2764,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B84" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C84">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D84" t="s">
-        <x:v>79</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:4" ht="14.949999999999999">
@@ -2769,13 +2778,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B85" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C85">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D85" t="s">
-        <x:v>75</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:4" ht="14.949999999999999">
@@ -2783,13 +2792,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B86" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C86">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D86" t="s">
-        <x:v>211</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:4" ht="14.949999999999999">
@@ -2797,13 +2806,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B87" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C87">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D87" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:4" ht="14.949999999999999">
@@ -2811,13 +2820,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B88" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C88">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D88" t="s">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:4" ht="14.949999999999999">
@@ -2825,13 +2834,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B89" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C89">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D89" t="s">
-        <x:v>78</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:4" ht="14.949999999999999">
@@ -2839,13 +2848,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B90" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C90">
         <x:v>23</x:v>
       </x:c>
       <x:c r="D90" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:4" ht="14.949999999999999">
@@ -2853,13 +2862,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B91" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C91">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D91" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:4" ht="14.949999999999999">
@@ -2867,13 +2876,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B92" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C92">
         <x:v>35</x:v>
       </x:c>
       <x:c r="D92" t="s">
-        <x:v>98</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:4" ht="14.949999999999999">
@@ -2881,13 +2890,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B93" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C93">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D93" t="s">
-        <x:v>95</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:4" ht="14.949999999999999">
@@ -2895,13 +2904,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B94" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C94">
         <x:v>40</x:v>
       </x:c>
       <x:c r="D94" t="s">
-        <x:v>212</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:4" ht="14.949999999999999">
@@ -2909,13 +2918,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B95" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C95">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D95" t="s">
-        <x:v>91</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:4" ht="14.949999999999999">
@@ -2923,13 +2932,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B96" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C96">
         <x:v>43</x:v>
       </x:c>
       <x:c r="D96" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:4" ht="14.949999999999999">
@@ -2937,13 +2946,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B97" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C97">
         <x:v>49</x:v>
       </x:c>
       <x:c r="D97" t="s">
-        <x:v>80</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:4" ht="14.949999999999999">
@@ -2951,13 +2960,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B98" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C98">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D98" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:4" ht="15.1">
@@ -2965,13 +2974,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B99" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C99">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D99" t="s">
-        <x:v>221</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:4" ht="15.1">
@@ -2979,13 +2988,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B100" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C100">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D100" t="s">
-        <x:v>84</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:4" ht="15.1">
@@ -2993,13 +3002,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B101" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C101">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D101" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:4" ht="15.1">
@@ -3007,13 +3016,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B102" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C102">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D102" t="s">
-        <x:v>219</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:4" ht="15.1">
@@ -3021,13 +3030,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B103" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C103">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D103" t="s">
-        <x:v>70</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:4" ht="15.1">
@@ -3035,13 +3044,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B104" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C104">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D104" t="s">
-        <x:v>79</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:4" ht="15.1">
@@ -3049,13 +3058,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B105" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C105">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D105" t="s">
-        <x:v>232</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:4" ht="15.1">
@@ -3063,13 +3072,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B106" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C106">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D106" t="s">
-        <x:v>221</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:4" ht="15.1">
@@ -3077,13 +3086,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B107" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C107">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D107" t="s">
-        <x:v>15</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:4" ht="15.1">
@@ -3091,13 +3100,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B108" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C108">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D108" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:4" ht="15.1">
@@ -3105,13 +3114,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B109" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C109">
         <x:v>19</x:v>
       </x:c>
       <x:c r="D109" t="s">
-        <x:v>211</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:4" ht="15.1">
@@ -3119,13 +3128,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B110" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C110">
         <x:v>20</x:v>
       </x:c>
       <x:c r="D110" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:4" ht="15.1">
@@ -3133,13 +3142,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B111" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C111">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D111" t="s">
-        <x:v>78</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:4" ht="15.1">
@@ -3147,13 +3156,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B112" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C112">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D112" t="s">
-        <x:v>93</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:4" ht="15.1">
@@ -3161,13 +3170,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B113" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C113">
         <x:v>34</x:v>
       </x:c>
       <x:c r="D113" t="s">
-        <x:v>227</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:4" ht="15.1">
@@ -3175,13 +3184,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B114" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C114">
         <x:v>35</x:v>
       </x:c>
       <x:c r="D114" t="s">
-        <x:v>98</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:4" ht="15.1">
@@ -3189,13 +3198,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B115" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C115">
         <x:v>40</x:v>
       </x:c>
       <x:c r="D115" t="s">
-        <x:v>212</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:4" ht="15.1">
@@ -3203,13 +3212,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B116" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C116">
         <x:v>41</x:v>
       </x:c>
       <x:c r="D116" t="s">
-        <x:v>213</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:4" ht="15.1">
@@ -3217,13 +3226,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B117" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C117">
         <x:v>43</x:v>
       </x:c>
       <x:c r="D117" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:4" ht="15.1">
@@ -3231,13 +3240,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B118" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C118">
         <x:v>49</x:v>
       </x:c>
       <x:c r="D118" t="s">
-        <x:v>80</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:4" ht="14.949999999999999">
@@ -3245,13 +3254,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B119" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C119">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D119" t="s">
-        <x:v>96</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:4" ht="14.949999999999999">
@@ -3259,13 +3268,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B120" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C120">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D120" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:4" ht="14.949999999999999">
@@ -3273,13 +3282,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B121" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C121">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D121" t="s">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:4" ht="14.949999999999999">
@@ -3287,13 +3296,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B122" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C122">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D122" t="s">
-        <x:v>75</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:4" ht="14.949999999999999">
@@ -3301,13 +3310,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B123" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C123">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D123" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:4" ht="14.949999999999999">
@@ -3315,13 +3324,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B124" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C124">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D124" t="s">
-        <x:v>84</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:4" ht="14.949999999999999">
@@ -3329,13 +3338,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B125" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C125">
         <x:v>21</x:v>
       </x:c>
       <x:c r="D125" t="s">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:4" ht="14.949999999999999">
@@ -3343,13 +3352,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B126" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C126">
         <x:v>23</x:v>
       </x:c>
       <x:c r="D126" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:4" ht="14.949999999999999">
@@ -3357,13 +3366,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B127" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C127">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D127" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:4" ht="14.949999999999999">
@@ -3371,13 +3380,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B128" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C128">
         <x:v>29</x:v>
       </x:c>
       <x:c r="D128" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:4" ht="14.949999999999999">
@@ -3385,13 +3394,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B129" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C129">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D129" t="s">
-        <x:v>2</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:4" ht="14.949999999999999">
@@ -3399,13 +3408,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B130" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C130">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D130" t="s">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:4" ht="14.949999999999999">
@@ -3413,13 +3422,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B131" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C131">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D131" t="s">
-        <x:v>95</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:4" ht="14.949999999999999">
@@ -3427,13 +3436,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B132" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C132">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D132" t="s">
-        <x:v>91</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:4" ht="14.949999999999999">
@@ -3441,13 +3450,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B133" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C133">
         <x:v>44</x:v>
       </x:c>
       <x:c r="D133" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:4" ht="14.949999999999999">
@@ -3455,13 +3464,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B134" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C134">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D134" t="s">
-        <x:v>74</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:4" ht="14.949999999999999">
@@ -3469,13 +3478,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B135" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C135">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D135" t="s">
-        <x:v>214</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:4" ht="14.949999999999999">
@@ -3483,13 +3492,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B136" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C136">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D136" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:4" ht="15.85">
@@ -3497,13 +3506,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B137" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C137">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D137" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:4" ht="15.85">
@@ -3511,13 +3520,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B138" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C138">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D138" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:4" ht="15.85">
@@ -3525,13 +3534,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B139" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C139">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D139" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:4" ht="15.85">
@@ -3539,13 +3548,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B140" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C140">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D140" t="s">
-        <x:v>89</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:4" ht="15.85">
@@ -3553,13 +3562,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B141" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C141">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D141" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:4" ht="15.85">
@@ -3567,13 +3576,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B142" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C142">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D142" t="s">
-        <x:v>216</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:4" ht="15.85">
@@ -3581,13 +3590,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B143" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C143">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D143" t="s">
-        <x:v>220</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:4" ht="15.85">
@@ -3595,13 +3604,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B144" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C144">
         <x:v>26</x:v>
       </x:c>
       <x:c r="D144" t="s">
-        <x:v>231</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:4" ht="15.85">
@@ -3609,13 +3618,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B145" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C145">
         <x:v>27</x:v>
       </x:c>
       <x:c r="D145" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:4" ht="15.85">
@@ -3623,13 +3632,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B146" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C146">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D146" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:4" ht="15.85">
@@ -3637,13 +3646,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B147" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C147">
         <x:v>38</x:v>
       </x:c>
       <x:c r="D147" t="s">
-        <x:v>230</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:4" ht="15.85">
@@ -3651,13 +3660,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B148" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C148">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D148" t="s">
-        <x:v>223</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:4" ht="15.85">
@@ -3665,13 +3674,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B149" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C149">
         <x:v>46</x:v>
       </x:c>
       <x:c r="D149" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:4" ht="15.85">
@@ -3679,13 +3688,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B150" s="6" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C150">
         <x:v>48</x:v>
       </x:c>
       <x:c r="D150" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:4" ht="15.85">
@@ -3693,13 +3702,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B151" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C151">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D151" t="s">
-        <x:v>82</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:4" ht="15.85">
@@ -3713,7 +3722,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D152" t="s">
-        <x:v>96</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:4" ht="15.85">
@@ -3727,7 +3736,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D153" t="s">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:4" ht="15.85">
@@ -3741,7 +3750,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D154" t="s">
-        <x:v>70</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:4" ht="15.85">
@@ -3755,7 +3764,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D155" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:4" ht="15.85">
@@ -3769,7 +3778,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D156" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:4" ht="15.85">
@@ -3783,7 +3792,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D157" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:4" ht="15.85">
@@ -3797,7 +3806,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D158" t="s">
-        <x:v>79</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:4" ht="15.85">
@@ -3811,7 +3820,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D159" t="s">
-        <x:v>75</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:4" ht="15.85">
@@ -3825,7 +3834,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D160" t="s">
-        <x:v>211</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:4" ht="15.85">
@@ -3839,7 +3848,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D161" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:4" ht="15.85">
@@ -3853,7 +3862,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D162" t="s">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:4" ht="15.85">
@@ -3867,7 +3876,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D163" t="s">
-        <x:v>78</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:4" ht="15.85">
@@ -3881,7 +3890,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D164" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:4" ht="15.85">
@@ -3895,7 +3904,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D165" t="s">
-        <x:v>98</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:4" ht="15.85">
@@ -3909,7 +3918,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D166" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:4" ht="15.85">
@@ -3923,7 +3932,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D167" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:4" ht="15.85">
@@ -3937,7 +3946,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D168" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:4" ht="15.85">
@@ -3951,7 +3960,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D169" t="s">
-        <x:v>80</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:4" ht="15.85">
@@ -3959,13 +3968,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B170" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C170">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D170" t="s">
-        <x:v>219</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:4" ht="15.85">
@@ -3973,13 +3982,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B171" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C171">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D171" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:4" ht="15.85">
@@ -3987,13 +3996,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B172" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C172">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D172" t="s">
-        <x:v>89</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:4" ht="15.85">
@@ -4001,13 +4010,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B173" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C173">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D173" t="s">
-        <x:v>232</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:4" ht="15.85">
@@ -4015,13 +4024,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B174" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C174">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D174" t="s">
-        <x:v>221</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:4" ht="15.85">
@@ -4029,13 +4038,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B175" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C175">
         <x:v>24</x:v>
       </x:c>
       <x:c r="D175" t="s">
-        <x:v>216</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:4" ht="15.85">
@@ -4043,13 +4052,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B176" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C176">
         <x:v>25</x:v>
       </x:c>
       <x:c r="D176" t="s">
-        <x:v>220</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:4" ht="15.85">
@@ -4057,13 +4066,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B177" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C177">
         <x:v>26</x:v>
       </x:c>
       <x:c r="D177" t="s">
-        <x:v>231</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:4" ht="15.85">
@@ -4071,13 +4080,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B178" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C178">
         <x:v>27</x:v>
       </x:c>
       <x:c r="D178" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:4" ht="15.85">
@@ -4085,13 +4094,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B179" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C179">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D179" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:4" ht="15.85">
@@ -4099,13 +4108,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B180" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C180">
         <x:v>34</x:v>
       </x:c>
       <x:c r="D180" t="s">
-        <x:v>227</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:4" ht="15.85">
@@ -4113,13 +4122,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B181" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C181">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D181" t="s">
-        <x:v>82</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:4" ht="15.85">
@@ -4127,13 +4136,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B182" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C182">
         <x:v>37</x:v>
       </x:c>
       <x:c r="D182" t="s">
-        <x:v>95</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:4" ht="15.85">
@@ -4141,13 +4150,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B183" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C183">
         <x:v>38</x:v>
       </x:c>
       <x:c r="D183" t="s">
-        <x:v>230</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:4" ht="15.85">
@@ -4155,13 +4164,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B184" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C184">
         <x:v>40</x:v>
       </x:c>
       <x:c r="D184" t="s">
-        <x:v>212</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:4" ht="15.85">
@@ -4169,13 +4178,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B185" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C185">
         <x:v>42</x:v>
       </x:c>
       <x:c r="D185" t="s">
-        <x:v>91</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:4" ht="15.85">
@@ -4183,13 +4192,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B186" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C186">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D186" t="s">
-        <x:v>74</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:4" ht="15.85">
@@ -4197,13 +4206,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B187" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C187">
         <x:v>46</x:v>
       </x:c>
       <x:c r="D187" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:4" ht="15.85">
@@ -4211,13 +4220,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B188" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C188">
         <x:v>47</x:v>
       </x:c>
       <x:c r="D188" t="s">
-        <x:v>214</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:4" ht="15.85">
@@ -4225,13 +4234,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B189" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C189">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D189" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:4" ht="15.85">
@@ -4239,13 +4248,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B190" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C190">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D190" t="s">
-        <x:v>15</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:4" ht="15.85">
@@ -4253,13 +4262,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B191" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C191">
         <x:v>16</x:v>
       </x:c>
       <x:c r="D191" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:4" ht="15.85">
@@ -4267,13 +4276,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B192" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C192">
         <x:v>30</x:v>
       </x:c>
       <x:c r="D192" t="s">
-        <x:v>2</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:4" ht="15.85">
@@ -4281,13 +4290,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B193" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C193">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D193" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:4" ht="15.85">
@@ -4295,13 +4304,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B194" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C194">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D194" t="s">
-        <x:v>223</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:4" ht="15.85">
@@ -4309,13 +4318,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B195" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C195">
         <x:v>41</x:v>
       </x:c>
       <x:c r="D195" t="s">
-        <x:v>213</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:4" ht="15.85">
@@ -4323,13 +4332,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B196" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C196">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D196" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:4" ht="15.1">
@@ -4337,13 +4346,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B197" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C197">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D197" t="s">
-        <x:v>84</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:4" ht="15.1">
@@ -4351,13 +4360,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B198" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C198">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D198" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:4" ht="15.1">
@@ -4365,13 +4374,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B199" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C199">
         <x:v>29</x:v>
       </x:c>
       <x:c r="D199" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:4" ht="15.1">
@@ -4379,13 +4388,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B200" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C200">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D200" t="s">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:4" ht="15.1">
@@ -4393,17 +4402,17 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B201" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C201">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D201" t="s">
-        <x:v>93</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4433,37 +4442,37 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>222</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>228</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>100</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E1" t="s">
-        <x:v>215</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G1" t="s">
-        <x:v>226</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H1" t="s">
-        <x:v>224</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I1" t="s">
-        <x:v>218</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J1" t="s">
-        <x:v>99</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="K1" t="s">
-        <x:v>86</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11" ht="28.300000000000001">
@@ -4471,31 +4480,31 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>84</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>205</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>204</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E2">
         <x:v>369</x:v>
       </x:c>
       <x:c r="F2" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G2" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I2" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J2" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K2">
         <x:v>9</x:v>
@@ -4506,31 +4515,31 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>105</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>103</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E3">
         <x:v>329</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="G3" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J3" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K3">
         <x:v>13</x:v>
@@ -4541,31 +4550,31 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>122</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>151</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E4">
         <x:v>399</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J4" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K4">
         <x:v>9</x:v>
@@ -4576,31 +4585,31 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>135</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>154</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E5">
         <x:v>349</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K5">
         <x:v>21</x:v>
@@ -4611,31 +4620,31 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>93</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>146</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>134</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E6">
         <x:v>379</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G6" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H6" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I6" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J6" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K6">
         <x:v>10</x:v>
@@ -4646,31 +4655,31 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>98</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>157</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>133</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E7">
         <x:v>950</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G7" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H7" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I7" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J7" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K7">
         <x:v>18</x:v>
@@ -4681,31 +4690,31 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>70</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>189</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>183</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E8">
         <x:v>1399</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G8" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H8" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I8" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J8" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K8">
         <x:v>11</x:v>
@@ -4716,31 +4725,31 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>192</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>188</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E9">
         <x:v>669</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G9" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H9" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I9" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J9" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K9">
         <x:v>13</x:v>
@@ -4751,31 +4760,31 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>193</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>195</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E10">
         <x:v>669</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="G10" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H10" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I10" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J10" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K10">
         <x:v>22</x:v>
@@ -4786,31 +4795,31 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>186</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>194</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E11">
         <x:v>439</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G11" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H11" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I11" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J11" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K11">
         <x:v>14</x:v>
@@ -4821,31 +4830,31 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>79</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>200</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>210</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E12">
         <x:v>519</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G12" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H12" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I12" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J12" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K12">
         <x:v>16</x:v>
@@ -4856,31 +4865,31 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>75</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>198</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D13" t="s">
-        <x:v>197</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E13">
         <x:v>519</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G13" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H13" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I13" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J13" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K13">
         <x:v>21</x:v>
@@ -4891,31 +4900,31 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C14" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D14" t="s">
         <x:v>232</x:v>
-      </x:c>
-      <x:c r="C14" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="D14" t="s">
-        <x:v>196</x:v>
       </x:c>
       <x:c r="E14">
         <x:v>519</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G14" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H14" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I14" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J14" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K14">
         <x:v>11</x:v>
@@ -4926,31 +4935,31 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>211</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>111</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D15" t="s">
-        <x:v>115</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E15">
         <x:v>499</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G15" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H15" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I15" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J15" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K15">
         <x:v>16</x:v>
@@ -4961,31 +4970,31 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>78</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>116</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D16" t="s">
-        <x:v>119</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E16">
         <x:v>499</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G16" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H16" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I16" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J16" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K16">
         <x:v>13</x:v>
@@ -4996,31 +5005,31 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>109</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D17" t="s">
-        <x:v>121</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E17">
         <x:v>499</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G17" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H17" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I17" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J17" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K17">
         <x:v>18</x:v>
@@ -5031,31 +5040,31 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>95</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>152</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D18" t="s">
-        <x:v>143</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E18">
         <x:v>798</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G18" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H18" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I18" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J18" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K18">
         <x:v>9</x:v>
@@ -5066,31 +5075,31 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>230</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C19" t="s">
-        <x:v>140</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D19" t="s">
-        <x:v>137</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E19">
         <x:v>499</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G19" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H19" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I19" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J19" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K19">
         <x:v>14</x:v>
@@ -5101,31 +5110,31 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B20" t="s">
-        <x:v>91</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C20" t="s">
-        <x:v>166</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D20" t="s">
-        <x:v>139</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E20">
         <x:v>469</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G20" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H20" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I20" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J20" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K20">
         <x:v>14</x:v>
@@ -5136,31 +5145,31 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B21" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C21" t="s">
-        <x:v>128</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D21" t="s">
-        <x:v>161</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E21">
         <x:v>499</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G21" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H21" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I21" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J21" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K21">
         <x:v>16</x:v>
@@ -5171,31 +5180,31 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B22" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C22" t="s">
-        <x:v>160</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D22" t="s">
-        <x:v>158</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E22">
         <x:v>579</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G22" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H22" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I22" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J22" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K22">
         <x:v>20</x:v>
@@ -5206,31 +5215,31 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B23" t="s">
-        <x:v>80</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C23" t="s">
-        <x:v>172</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D23" t="s">
-        <x:v>168</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E23">
         <x:v>599</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G23" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H23" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I23" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J23" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K23">
         <x:v>9</x:v>
@@ -5241,31 +5250,31 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B24" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C24" t="s">
-        <x:v>173</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D24" t="s">
-        <x:v>191</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E24">
         <x:v>349</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G24" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H24" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I24" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J24" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K24">
         <x:v>14</x:v>
@@ -5276,31 +5285,31 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B25" t="s">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C25" t="s">
-        <x:v>182</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D25" t="s">
-        <x:v>184</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E25">
         <x:v>399</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G25" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H25" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I25" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J25" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K25">
         <x:v>20</x:v>
@@ -5311,31 +5320,31 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B26" t="s">
-        <x:v>221</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C26" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D26" t="s">
-        <x:v>206</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E26">
         <x:v>549</x:v>
       </x:c>
       <x:c r="F26" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G26" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H26" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I26" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J26" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K26">
         <x:v>14</x:v>
@@ -5346,31 +5355,31 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B27" t="s">
-        <x:v>15</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C27" t="s">
-        <x:v>208</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D27" t="s">
-        <x:v>207</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E27">
         <x:v>339</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="G27" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H27" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I27" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J27" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K27">
         <x:v>17</x:v>
@@ -5381,31 +5390,31 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B28" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C28" t="s">
-        <x:v>202</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D28" t="s">
-        <x:v>203</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E28">
         <x:v>379</x:v>
       </x:c>
       <x:c r="F28" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G28" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H28" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I28" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J28" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K28">
         <x:v>20</x:v>
@@ -5416,31 +5425,31 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B29" t="s">
-        <x:v>2</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C29" t="s">
-        <x:v>126</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D29" t="s">
-        <x:v>132</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E29">
         <x:v>449</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G29" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H29" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I29" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J29" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K29">
         <x:v>13</x:v>
@@ -5451,31 +5460,31 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B30" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C30" t="s">
-        <x:v>129</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D30" t="s">
-        <x:v>130</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E30">
         <x:v>449</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G30" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H30" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I30" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J30" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K30">
         <x:v>18</x:v>
@@ -5486,31 +5495,31 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B31" t="s">
-        <x:v>223</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C31" t="s">
-        <x:v>136</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D31" t="s">
-        <x:v>148</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E31">
         <x:v>538</x:v>
       </x:c>
       <x:c r="F31" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G31" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H31" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I31" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J31" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K31">
         <x:v>18</x:v>
@@ -5521,31 +5530,31 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B32" t="s">
-        <x:v>212</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C32" t="s">
-        <x:v>147</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D32" t="s">
-        <x:v>153</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E32">
         <x:v>598</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G32" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I32" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J32" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K32">
         <x:v>20</x:v>
@@ -5556,31 +5565,31 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B33" t="s">
-        <x:v>74</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C33" t="s">
-        <x:v>164</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D33" t="s">
-        <x:v>176</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E33">
         <x:v>1399</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G33" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H33" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I33" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J33" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K33">
         <x:v>9</x:v>
@@ -5591,31 +5600,31 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B34" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C34" t="s">
-        <x:v>165</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D34" t="s">
-        <x:v>174</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E34">
         <x:v>449</x:v>
       </x:c>
       <x:c r="F34" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G34" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H34" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I34" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J34" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K34">
         <x:v>14</x:v>
@@ -5626,31 +5635,31 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B35" t="s">
-        <x:v>214</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C35" t="s">
-        <x:v>177</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D35" t="s">
-        <x:v>169</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E35">
         <x:v>759</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G35" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H35" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I35" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J35" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K35">
         <x:v>17</x:v>
@@ -5661,31 +5670,31 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B36" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C36" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D36" t="s">
-        <x:v>170</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E36">
         <x:v>399</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G36" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H36" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I36" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J36" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K36">
         <x:v>13</x:v>
@@ -5696,31 +5705,31 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B37" t="s">
-        <x:v>96</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C37" t="s">
-        <x:v>171</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D37" t="s">
-        <x:v>155</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E37">
         <x:v>349</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G37" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H37" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I37" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J37" s="4" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K37">
         <x:v>10</x:v>
@@ -5731,31 +5740,31 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B38" t="s">
-        <x:v>219</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C38" t="s">
-        <x:v>178</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D38" t="s">
-        <x:v>190</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E38">
         <x:v>379</x:v>
       </x:c>
       <x:c r="F38" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G38" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H38" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I38" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J38" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K38">
         <x:v>17</x:v>
@@ -5766,31 +5775,31 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B39" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C39" t="s">
-        <x:v>156</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D39" t="s">
-        <x:v>180</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E39">
         <x:v>569</x:v>
       </x:c>
       <x:c r="F39" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G39" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H39" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I39" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J39" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K39">
         <x:v>17</x:v>
@@ -5801,31 +5810,31 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B40" t="s">
-        <x:v>89</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C40" t="s">
-        <x:v>201</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D40" t="s">
-        <x:v>185</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E40">
         <x:v>599</x:v>
       </x:c>
       <x:c r="F40" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G40" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H40" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I40" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J40" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K40">
         <x:v>10</x:v>
@@ -5836,31 +5845,31 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B41" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C41" t="s">
-        <x:v>113</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D41" t="s">
-        <x:v>120</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E41">
         <x:v>469</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G41" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H41" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I41" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J41" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K41">
         <x:v>20</x:v>
@@ -5871,31 +5880,31 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B42" t="s">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C42" t="s">
-        <x:v>114</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D42" t="s">
-        <x:v>112</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E42">
         <x:v>469</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G42" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H42" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I42" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J42" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K42">
         <x:v>9</x:v>
@@ -5906,31 +5915,31 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B43" t="s">
-        <x:v>216</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C43" t="s">
-        <x:v>118</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D43" t="s">
-        <x:v>104</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E43">
         <x:v>499</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G43" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H43" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I43" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J43" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K43">
         <x:v>20</x:v>
@@ -5941,31 +5950,31 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B44" t="s">
-        <x:v>220</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C44" t="s">
-        <x:v>102</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D44" t="s">
-        <x:v>108</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E44">
         <x:v>519</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G44" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H44" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I44" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J44" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K44">
         <x:v>10</x:v>
@@ -5976,31 +5985,31 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B45" t="s">
-        <x:v>231</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C45" t="s">
-        <x:v>123</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D45" t="s">
-        <x:v>107</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E45">
         <x:v>539</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G45" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H45" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I45" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J45" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K45">
         <x:v>13</x:v>
@@ -6011,31 +6020,31 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B46" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C46" t="s">
-        <x:v>106</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D46" t="s">
-        <x:v>110</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E46">
         <x:v>899</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G46" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H46" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I46" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J46" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K46">
         <x:v>18</x:v>
@@ -6046,31 +6055,31 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B47" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C47" t="s">
-        <x:v>124</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D47" t="s">
-        <x:v>127</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E47">
         <x:v>429</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G47" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H47" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I47" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J47" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K47">
         <x:v>20</x:v>
@@ -6081,31 +6090,31 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B48" t="s">
-        <x:v>227</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C48" t="s">
-        <x:v>141</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D48" t="s">
-        <x:v>144</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E48">
         <x:v>1198</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G48" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H48" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I48" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J48" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K48">
         <x:v>13</x:v>
@@ -6116,31 +6125,31 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B49" t="s">
-        <x:v>82</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C49" t="s">
-        <x:v>149</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D49" t="s">
-        <x:v>131</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E49">
         <x:v>918</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G49" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H49" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I49" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J49" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K49">
         <x:v>21</x:v>
@@ -6151,31 +6160,31 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B50" t="s">
-        <x:v>213</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C50" t="s">
-        <x:v>125</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D50" t="s">
-        <x:v>145</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E50">
         <x:v>598</x:v>
       </x:c>
       <x:c r="F50" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G50" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H50" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H50" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="I50" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J50" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K50">
         <x:v>9</x:v>
@@ -6186,31 +6195,31 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B51" t="s">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C51" t="s">
-        <x:v>167</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D51" t="s">
-        <x:v>163</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E51">
         <x:v>599</x:v>
       </x:c>
       <x:c r="F51" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G51" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H51" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I51" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J51" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K51">
         <x:v>20</x:v>
@@ -6239,15 +6248,15 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" t="s">
-        <x:v>217</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>76</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B2">
         <x:v>1</x:v>
@@ -6255,7 +6264,7 @@
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B3">
         <x:v>1</x:v>
@@ -6263,7 +6272,7 @@
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B4">
         <x:v>1</x:v>
@@ -6271,7 +6280,7 @@
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B5">
         <x:v>2</x:v>
@@ -6279,7 +6288,7 @@
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B6">
         <x:v>2</x:v>
@@ -6287,7 +6296,7 @@
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B7">
         <x:v>2</x:v>
@@ -6295,7 +6304,7 @@
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B8">
         <x:v>3</x:v>
@@ -6303,7 +6312,7 @@
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B9">
         <x:v>3</x:v>
@@ -6311,7 +6320,7 @@
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B10">
         <x:v>3</x:v>
@@ -6319,7 +6328,7 @@
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B11">
         <x:v>4</x:v>
@@ -6327,7 +6336,7 @@
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B12">
         <x:v>4</x:v>
@@ -6335,7 +6344,7 @@
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B13">
         <x:v>4</x:v>
@@ -6343,7 +6352,7 @@
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B14">
         <x:v>5</x:v>
@@ -6351,7 +6360,7 @@
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B15">
         <x:v>5</x:v>
@@ -6359,7 +6368,7 @@
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B16">
         <x:v>5</x:v>
@@ -6367,7 +6376,7 @@
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B17">
         <x:v>6</x:v>
@@ -6375,7 +6384,7 @@
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B18">
         <x:v>6</x:v>
@@ -6383,7 +6392,7 @@
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B19">
         <x:v>6</x:v>
@@ -6391,7 +6400,7 @@
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B20">
         <x:v>7</x:v>
@@ -6399,7 +6408,7 @@
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B21">
         <x:v>7</x:v>
@@ -6407,7 +6416,7 @@
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B22">
         <x:v>7</x:v>
@@ -6415,7 +6424,7 @@
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B23">
         <x:v>8</x:v>
@@ -6423,7 +6432,7 @@
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B24">
         <x:v>8</x:v>
@@ -6431,7 +6440,7 @@
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B25">
         <x:v>8</x:v>
@@ -6439,7 +6448,7 @@
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B26">
         <x:v>9</x:v>
@@ -6447,7 +6456,7 @@
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B27">
         <x:v>9</x:v>
@@ -6455,7 +6464,7 @@
     </x:row>
     <x:row r="28" spans="1:2">
       <x:c r="A28" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B28">
         <x:v>9</x:v>
@@ -6463,7 +6472,7 @@
     </x:row>
     <x:row r="29" spans="1:2">
       <x:c r="A29" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B29">
         <x:v>10</x:v>
@@ -6471,7 +6480,7 @@
     </x:row>
     <x:row r="30" spans="1:2">
       <x:c r="A30" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B30">
         <x:v>10</x:v>
@@ -6479,7 +6488,7 @@
     </x:row>
     <x:row r="31" spans="1:2">
       <x:c r="A31" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B31">
         <x:v>10</x:v>
@@ -6487,7 +6496,7 @@
     </x:row>
     <x:row r="32" spans="1:2">
       <x:c r="A32" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B32">
         <x:v>11</x:v>
@@ -6495,7 +6504,7 @@
     </x:row>
     <x:row r="33" spans="1:2">
       <x:c r="A33" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B33">
         <x:v>11</x:v>
@@ -6503,7 +6512,7 @@
     </x:row>
     <x:row r="34" spans="1:2">
       <x:c r="A34" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B34">
         <x:v>11</x:v>
@@ -6511,7 +6520,7 @@
     </x:row>
     <x:row r="35" spans="1:2">
       <x:c r="A35" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B35">
         <x:v>12</x:v>
@@ -6519,7 +6528,7 @@
     </x:row>
     <x:row r="36" spans="1:2">
       <x:c r="A36" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B36">
         <x:v>12</x:v>
@@ -6527,7 +6536,7 @@
     </x:row>
     <x:row r="37" spans="1:2">
       <x:c r="A37" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B37">
         <x:v>12</x:v>
@@ -6535,7 +6544,7 @@
     </x:row>
     <x:row r="38" spans="1:2">
       <x:c r="A38" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B38">
         <x:v>13</x:v>
@@ -6543,7 +6552,7 @@
     </x:row>
     <x:row r="39" spans="1:2">
       <x:c r="A39" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B39">
         <x:v>13</x:v>
@@ -6551,7 +6560,7 @@
     </x:row>
     <x:row r="40" spans="1:2">
       <x:c r="A40" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B40">
         <x:v>13</x:v>
@@ -6559,7 +6568,7 @@
     </x:row>
     <x:row r="41" spans="1:2">
       <x:c r="A41" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B41">
         <x:v>14</x:v>
@@ -6567,7 +6576,7 @@
     </x:row>
     <x:row r="42" spans="1:2">
       <x:c r="A42" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B42">
         <x:v>14</x:v>
@@ -6575,7 +6584,7 @@
     </x:row>
     <x:row r="43" spans="1:2">
       <x:c r="A43" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B43">
         <x:v>14</x:v>
@@ -6583,7 +6592,7 @@
     </x:row>
     <x:row r="44" spans="1:2">
       <x:c r="A44" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B44">
         <x:v>15</x:v>
@@ -6591,7 +6600,7 @@
     </x:row>
     <x:row r="45" spans="1:2">
       <x:c r="A45" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B45">
         <x:v>15</x:v>
@@ -6599,7 +6608,7 @@
     </x:row>
     <x:row r="46" spans="1:2">
       <x:c r="A46" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B46">
         <x:v>15</x:v>
@@ -6607,7 +6616,7 @@
     </x:row>
     <x:row r="47" spans="1:2">
       <x:c r="A47" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B47">
         <x:v>16</x:v>
@@ -6615,7 +6624,7 @@
     </x:row>
     <x:row r="48" spans="1:2">
       <x:c r="A48" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B48">
         <x:v>16</x:v>
@@ -6623,7 +6632,7 @@
     </x:row>
     <x:row r="49" spans="1:2">
       <x:c r="A49" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B49">
         <x:v>16</x:v>
@@ -6631,7 +6640,7 @@
     </x:row>
     <x:row r="50" spans="1:2">
       <x:c r="A50" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B50">
         <x:v>17</x:v>
@@ -6639,7 +6648,7 @@
     </x:row>
     <x:row r="51" spans="1:2">
       <x:c r="A51" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B51">
         <x:v>17</x:v>
@@ -6647,7 +6656,7 @@
     </x:row>
     <x:row r="52" spans="1:2">
       <x:c r="A52" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B52">
         <x:v>17</x:v>
@@ -6655,7 +6664,7 @@
     </x:row>
     <x:row r="53" spans="1:2">
       <x:c r="A53" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B53">
         <x:v>18</x:v>
@@ -6663,7 +6672,7 @@
     </x:row>
     <x:row r="54" spans="1:2">
       <x:c r="A54" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B54">
         <x:v>18</x:v>
@@ -6671,7 +6680,7 @@
     </x:row>
     <x:row r="55" spans="1:2">
       <x:c r="A55" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B55">
         <x:v>18</x:v>
@@ -6679,7 +6688,7 @@
     </x:row>
     <x:row r="56" spans="1:2">
       <x:c r="A56" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B56">
         <x:v>19</x:v>
@@ -6687,7 +6696,7 @@
     </x:row>
     <x:row r="57" spans="1:2">
       <x:c r="A57" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B57">
         <x:v>19</x:v>
@@ -6695,7 +6704,7 @@
     </x:row>
     <x:row r="58" spans="1:2">
       <x:c r="A58" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B58">
         <x:v>19</x:v>
@@ -6703,7 +6712,7 @@
     </x:row>
     <x:row r="59" spans="1:2">
       <x:c r="A59" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B59">
         <x:v>20</x:v>
@@ -6711,7 +6720,7 @@
     </x:row>
     <x:row r="60" spans="1:2">
       <x:c r="A60" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B60">
         <x:v>20</x:v>
@@ -6719,7 +6728,7 @@
     </x:row>
     <x:row r="61" spans="1:2">
       <x:c r="A61" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B61">
         <x:v>20</x:v>
@@ -6727,7 +6736,7 @@
     </x:row>
     <x:row r="62" spans="1:2">
       <x:c r="A62" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B62">
         <x:v>21</x:v>
@@ -6735,7 +6744,7 @@
     </x:row>
     <x:row r="63" spans="1:2">
       <x:c r="A63" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B63">
         <x:v>21</x:v>
@@ -6743,7 +6752,7 @@
     </x:row>
     <x:row r="64" spans="1:2">
       <x:c r="A64" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B64">
         <x:v>21</x:v>
@@ -6751,7 +6760,7 @@
     </x:row>
     <x:row r="65" spans="1:2">
       <x:c r="A65" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B65">
         <x:v>22</x:v>
@@ -6759,7 +6768,7 @@
     </x:row>
     <x:row r="66" spans="1:2">
       <x:c r="A66" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B66">
         <x:v>22</x:v>
@@ -6767,7 +6776,7 @@
     </x:row>
     <x:row r="67" spans="1:2">
       <x:c r="A67" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B67">
         <x:v>22</x:v>
@@ -6775,7 +6784,7 @@
     </x:row>
     <x:row r="68" spans="1:2">
       <x:c r="A68" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B68">
         <x:v>23</x:v>
@@ -6783,7 +6792,7 @@
     </x:row>
     <x:row r="69" spans="1:2">
       <x:c r="A69" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B69">
         <x:v>23</x:v>
@@ -6791,7 +6800,7 @@
     </x:row>
     <x:row r="70" spans="1:2">
       <x:c r="A70" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B70">
         <x:v>23</x:v>
@@ -6799,7 +6808,7 @@
     </x:row>
     <x:row r="71" spans="1:2">
       <x:c r="A71" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B71">
         <x:v>24</x:v>
@@ -6807,7 +6816,7 @@
     </x:row>
     <x:row r="72" spans="1:2">
       <x:c r="A72" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B72">
         <x:v>24</x:v>
@@ -6815,7 +6824,7 @@
     </x:row>
     <x:row r="73" spans="1:2">
       <x:c r="A73" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B73">
         <x:v>24</x:v>
@@ -6823,7 +6832,7 @@
     </x:row>
     <x:row r="74" spans="1:2">
       <x:c r="A74" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B74">
         <x:v>25</x:v>
@@ -6831,7 +6840,7 @@
     </x:row>
     <x:row r="75" spans="1:2">
       <x:c r="A75" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B75">
         <x:v>25</x:v>
@@ -6839,7 +6848,7 @@
     </x:row>
     <x:row r="76" spans="1:2">
       <x:c r="A76" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B76">
         <x:v>25</x:v>
@@ -6847,7 +6856,7 @@
     </x:row>
     <x:row r="77" spans="1:2">
       <x:c r="A77" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B77">
         <x:v>26</x:v>
@@ -6855,7 +6864,7 @@
     </x:row>
     <x:row r="78" spans="1:2">
       <x:c r="A78" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B78">
         <x:v>26</x:v>
@@ -6863,7 +6872,7 @@
     </x:row>
     <x:row r="79" spans="1:2">
       <x:c r="A79" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B79">
         <x:v>26</x:v>
@@ -6871,7 +6880,7 @@
     </x:row>
     <x:row r="80" spans="1:2">
       <x:c r="A80" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B80">
         <x:v>27</x:v>
@@ -6879,7 +6888,7 @@
     </x:row>
     <x:row r="81" spans="1:2">
       <x:c r="A81" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B81">
         <x:v>27</x:v>
@@ -6887,7 +6896,7 @@
     </x:row>
     <x:row r="82" spans="1:2">
       <x:c r="A82" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B82">
         <x:v>27</x:v>
@@ -6895,7 +6904,7 @@
     </x:row>
     <x:row r="83" spans="1:2">
       <x:c r="A83" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B83">
         <x:v>28</x:v>
@@ -6903,7 +6912,7 @@
     </x:row>
     <x:row r="84" spans="1:2">
       <x:c r="A84" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B84">
         <x:v>28</x:v>
@@ -6911,7 +6920,7 @@
     </x:row>
     <x:row r="85" spans="1:2">
       <x:c r="A85" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B85">
         <x:v>28</x:v>
@@ -6919,7 +6928,7 @@
     </x:row>
     <x:row r="86" spans="1:2">
       <x:c r="A86" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B86">
         <x:v>29</x:v>
@@ -6927,7 +6936,7 @@
     </x:row>
     <x:row r="87" spans="1:2">
       <x:c r="A87" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B87">
         <x:v>29</x:v>
@@ -6935,7 +6944,7 @@
     </x:row>
     <x:row r="88" spans="1:2">
       <x:c r="A88" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B88">
         <x:v>29</x:v>
@@ -6943,7 +6952,7 @@
     </x:row>
     <x:row r="89" spans="1:2">
       <x:c r="A89" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B89">
         <x:v>30</x:v>
@@ -6951,7 +6960,7 @@
     </x:row>
     <x:row r="90" spans="1:2">
       <x:c r="A90" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B90">
         <x:v>30</x:v>
@@ -6959,7 +6968,7 @@
     </x:row>
     <x:row r="91" spans="1:2">
       <x:c r="A91" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B91">
         <x:v>30</x:v>
@@ -6967,7 +6976,7 @@
     </x:row>
     <x:row r="92" spans="1:2">
       <x:c r="A92" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B92">
         <x:v>31</x:v>
@@ -6975,7 +6984,7 @@
     </x:row>
     <x:row r="93" spans="1:2">
       <x:c r="A93" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B93">
         <x:v>31</x:v>
@@ -6983,7 +6992,7 @@
     </x:row>
     <x:row r="94" spans="1:2">
       <x:c r="A94" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B94">
         <x:v>31</x:v>
@@ -6991,7 +7000,7 @@
     </x:row>
     <x:row r="95" spans="1:2">
       <x:c r="A95" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B95">
         <x:v>32</x:v>
@@ -6999,7 +7008,7 @@
     </x:row>
     <x:row r="96" spans="1:2">
       <x:c r="A96" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B96">
         <x:v>32</x:v>
@@ -7007,7 +7016,7 @@
     </x:row>
     <x:row r="97" spans="1:2">
       <x:c r="A97" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B97">
         <x:v>32</x:v>
@@ -7015,7 +7024,7 @@
     </x:row>
     <x:row r="98" spans="1:2">
       <x:c r="A98" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B98">
         <x:v>33</x:v>
@@ -7023,7 +7032,7 @@
     </x:row>
     <x:row r="99" spans="1:2">
       <x:c r="A99" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B99">
         <x:v>33</x:v>
@@ -7031,7 +7040,7 @@
     </x:row>
     <x:row r="100" spans="1:2">
       <x:c r="A100" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B100">
         <x:v>33</x:v>
@@ -7039,7 +7048,7 @@
     </x:row>
     <x:row r="101" spans="1:2">
       <x:c r="A101" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B101">
         <x:v>34</x:v>
@@ -7047,7 +7056,7 @@
     </x:row>
     <x:row r="102" spans="1:2">
       <x:c r="A102" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B102">
         <x:v>34</x:v>
@@ -7055,7 +7064,7 @@
     </x:row>
     <x:row r="103" spans="1:2">
       <x:c r="A103" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B103">
         <x:v>34</x:v>
@@ -7063,7 +7072,7 @@
     </x:row>
     <x:row r="104" spans="1:2">
       <x:c r="A104" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B104">
         <x:v>35</x:v>
@@ -7071,7 +7080,7 @@
     </x:row>
     <x:row r="105" spans="1:2">
       <x:c r="A105" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B105">
         <x:v>35</x:v>
@@ -7079,7 +7088,7 @@
     </x:row>
     <x:row r="106" spans="1:2">
       <x:c r="A106" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B106">
         <x:v>35</x:v>
@@ -7087,7 +7096,7 @@
     </x:row>
     <x:row r="107" spans="1:2">
       <x:c r="A107" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B107">
         <x:v>36</x:v>
@@ -7095,7 +7104,7 @@
     </x:row>
     <x:row r="108" spans="1:2">
       <x:c r="A108" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B108">
         <x:v>36</x:v>
@@ -7103,7 +7112,7 @@
     </x:row>
     <x:row r="109" spans="1:2">
       <x:c r="A109" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B109">
         <x:v>36</x:v>
@@ -7111,7 +7120,7 @@
     </x:row>
     <x:row r="110" spans="1:2">
       <x:c r="A110" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B110">
         <x:v>37</x:v>
@@ -7119,7 +7128,7 @@
     </x:row>
     <x:row r="111" spans="1:2">
       <x:c r="A111" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B111">
         <x:v>37</x:v>
@@ -7127,7 +7136,7 @@
     </x:row>
     <x:row r="112" spans="1:2">
       <x:c r="A112" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B112">
         <x:v>37</x:v>
@@ -7135,7 +7144,7 @@
     </x:row>
     <x:row r="113" spans="1:2">
       <x:c r="A113" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B113">
         <x:v>38</x:v>
@@ -7143,7 +7152,7 @@
     </x:row>
     <x:row r="114" spans="1:2">
       <x:c r="A114" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B114">
         <x:v>38</x:v>
@@ -7151,7 +7160,7 @@
     </x:row>
     <x:row r="115" spans="1:2">
       <x:c r="A115" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B115">
         <x:v>38</x:v>
@@ -7159,7 +7168,7 @@
     </x:row>
     <x:row r="116" spans="1:2">
       <x:c r="A116" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B116">
         <x:v>39</x:v>
@@ -7167,7 +7176,7 @@
     </x:row>
     <x:row r="117" spans="1:2">
       <x:c r="A117" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B117">
         <x:v>39</x:v>
@@ -7175,7 +7184,7 @@
     </x:row>
     <x:row r="118" spans="1:2">
       <x:c r="A118" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B118">
         <x:v>39</x:v>
@@ -7183,7 +7192,7 @@
     </x:row>
     <x:row r="119" spans="1:2">
       <x:c r="A119" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B119">
         <x:v>40</x:v>
@@ -7191,7 +7200,7 @@
     </x:row>
     <x:row r="120" spans="1:2">
       <x:c r="A120" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B120">
         <x:v>40</x:v>
@@ -7199,7 +7208,7 @@
     </x:row>
     <x:row r="121" spans="1:2">
       <x:c r="A121" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B121">
         <x:v>40</x:v>
@@ -7207,7 +7216,7 @@
     </x:row>
     <x:row r="122" spans="1:2">
       <x:c r="A122" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B122">
         <x:v>41</x:v>
@@ -7215,7 +7224,7 @@
     </x:row>
     <x:row r="123" spans="1:2">
       <x:c r="A123" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B123">
         <x:v>41</x:v>
@@ -7223,7 +7232,7 @@
     </x:row>
     <x:row r="124" spans="1:2">
       <x:c r="A124" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B124">
         <x:v>41</x:v>
@@ -7231,7 +7240,7 @@
     </x:row>
     <x:row r="125" spans="1:2">
       <x:c r="A125" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B125">
         <x:v>42</x:v>
@@ -7239,7 +7248,7 @@
     </x:row>
     <x:row r="126" spans="1:2">
       <x:c r="A126" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B126">
         <x:v>42</x:v>
@@ -7247,7 +7256,7 @@
     </x:row>
     <x:row r="127" spans="1:2">
       <x:c r="A127" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B127">
         <x:v>42</x:v>
@@ -7255,7 +7264,7 @@
     </x:row>
     <x:row r="128" spans="1:2">
       <x:c r="A128" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B128">
         <x:v>43</x:v>
@@ -7263,7 +7272,7 @@
     </x:row>
     <x:row r="129" spans="1:2">
       <x:c r="A129" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B129">
         <x:v>43</x:v>
@@ -7271,7 +7280,7 @@
     </x:row>
     <x:row r="130" spans="1:2">
       <x:c r="A130" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B130">
         <x:v>43</x:v>
@@ -7279,7 +7288,7 @@
     </x:row>
     <x:row r="131" spans="1:2">
       <x:c r="A131" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B131">
         <x:v>44</x:v>
@@ -7287,7 +7296,7 @@
     </x:row>
     <x:row r="132" spans="1:2">
       <x:c r="A132" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B132">
         <x:v>44</x:v>
@@ -7295,7 +7304,7 @@
     </x:row>
     <x:row r="133" spans="1:2">
       <x:c r="A133" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B133">
         <x:v>44</x:v>
@@ -7303,7 +7312,7 @@
     </x:row>
     <x:row r="134" spans="1:2">
       <x:c r="A134" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B134">
         <x:v>45</x:v>
@@ -7311,7 +7320,7 @@
     </x:row>
     <x:row r="135" spans="1:2">
       <x:c r="A135" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B135">
         <x:v>45</x:v>
@@ -7319,7 +7328,7 @@
     </x:row>
     <x:row r="136" spans="1:2">
       <x:c r="A136" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B136">
         <x:v>45</x:v>
@@ -7327,7 +7336,7 @@
     </x:row>
     <x:row r="137" spans="1:2">
       <x:c r="A137" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B137">
         <x:v>46</x:v>
@@ -7335,7 +7344,7 @@
     </x:row>
     <x:row r="138" spans="1:2">
       <x:c r="A138" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B138">
         <x:v>46</x:v>
@@ -7343,7 +7352,7 @@
     </x:row>
     <x:row r="139" spans="1:2">
       <x:c r="A139" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B139">
         <x:v>46</x:v>
@@ -7351,7 +7360,7 @@
     </x:row>
     <x:row r="140" spans="1:2">
       <x:c r="A140" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B140">
         <x:v>47</x:v>
@@ -7359,7 +7368,7 @@
     </x:row>
     <x:row r="141" spans="1:2">
       <x:c r="A141" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B141">
         <x:v>47</x:v>
@@ -7367,7 +7376,7 @@
     </x:row>
     <x:row r="142" spans="1:2">
       <x:c r="A142" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B142">
         <x:v>47</x:v>
@@ -7375,7 +7384,7 @@
     </x:row>
     <x:row r="143" spans="1:2">
       <x:c r="A143" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B143">
         <x:v>48</x:v>
@@ -7383,7 +7392,7 @@
     </x:row>
     <x:row r="144" spans="1:2">
       <x:c r="A144" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B144">
         <x:v>48</x:v>
@@ -7391,7 +7400,7 @@
     </x:row>
     <x:row r="145" spans="1:2">
       <x:c r="A145" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B145">
         <x:v>48</x:v>
@@ -7399,7 +7408,7 @@
     </x:row>
     <x:row r="146" spans="1:2">
       <x:c r="A146" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B146">
         <x:v>49</x:v>
@@ -7407,7 +7416,7 @@
     </x:row>
     <x:row r="147" spans="1:2">
       <x:c r="A147" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B147">
         <x:v>49</x:v>
@@ -7415,7 +7424,7 @@
     </x:row>
     <x:row r="148" spans="1:2">
       <x:c r="A148" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B148">
         <x:v>49</x:v>
@@ -7423,7 +7432,7 @@
     </x:row>
     <x:row r="149" spans="1:2">
       <x:c r="A149" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B149">
         <x:v>50</x:v>
@@ -7431,7 +7440,7 @@
     </x:row>
     <x:row r="150" spans="1:2">
       <x:c r="A150" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B150">
         <x:v>50</x:v>
@@ -7439,7 +7448,7 @@
     </x:row>
     <x:row r="151" spans="1:2">
       <x:c r="A151" t="s">
-        <x:v>77</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B151">
         <x:v>50</x:v>
@@ -7468,15 +7477,15 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" t="s">
-        <x:v>233</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>76</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B2">
         <x:v>1</x:v>
@@ -7484,7 +7493,7 @@
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3">
         <x:v>1</x:v>
@@ -7492,7 +7501,7 @@
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B4">
         <x:v>2</x:v>
@@ -7500,7 +7509,7 @@
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B5">
         <x:v>2</x:v>
@@ -7508,7 +7517,7 @@
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B6">
         <x:v>3</x:v>
@@ -7516,7 +7525,7 @@
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B7">
         <x:v>3</x:v>
@@ -7524,7 +7533,7 @@
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B8">
         <x:v>4</x:v>
@@ -7532,7 +7541,7 @@
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B9">
         <x:v>4</x:v>
@@ -7540,7 +7549,7 @@
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B10">
         <x:v>5</x:v>
@@ -7548,7 +7557,7 @@
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B11">
         <x:v>5</x:v>
@@ -7556,7 +7565,7 @@
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B12">
         <x:v>6</x:v>
@@ -7564,7 +7573,7 @@
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B13">
         <x:v>6</x:v>
@@ -7572,7 +7581,7 @@
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B14">
         <x:v>7</x:v>
@@ -7580,7 +7589,7 @@
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B15">
         <x:v>7</x:v>
@@ -7588,7 +7597,7 @@
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B16">
         <x:v>8</x:v>
@@ -7596,7 +7605,7 @@
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B17">
         <x:v>8</x:v>
@@ -7604,7 +7613,7 @@
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B18">
         <x:v>9</x:v>
@@ -7612,7 +7621,7 @@
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B19">
         <x:v>9</x:v>
@@ -7620,7 +7629,7 @@
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B20">
         <x:v>10</x:v>
@@ -7628,7 +7637,7 @@
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B21">
         <x:v>10</x:v>
@@ -7636,7 +7645,7 @@
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B22">
         <x:v>11</x:v>
@@ -7644,7 +7653,7 @@
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B23">
         <x:v>11</x:v>
@@ -7652,7 +7661,7 @@
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B24">
         <x:v>12</x:v>
@@ -7660,7 +7669,7 @@
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B25">
         <x:v>12</x:v>
@@ -7668,7 +7677,7 @@
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B26">
         <x:v>13</x:v>
@@ -7676,7 +7685,7 @@
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B27">
         <x:v>13</x:v>
@@ -7684,7 +7693,7 @@
     </x:row>
     <x:row r="28" spans="1:2">
       <x:c r="A28" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B28">
         <x:v>14</x:v>
@@ -7692,7 +7701,7 @@
     </x:row>
     <x:row r="29" spans="1:2">
       <x:c r="A29" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B29">
         <x:v>14</x:v>
@@ -7700,7 +7709,7 @@
     </x:row>
     <x:row r="30" spans="1:2">
       <x:c r="A30" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B30">
         <x:v>15</x:v>
@@ -7708,7 +7717,7 @@
     </x:row>
     <x:row r="31" spans="1:2">
       <x:c r="A31" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B31">
         <x:v>15</x:v>
@@ -7716,7 +7725,7 @@
     </x:row>
     <x:row r="32" spans="1:2">
       <x:c r="A32" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B32">
         <x:v>16</x:v>
@@ -7724,7 +7733,7 @@
     </x:row>
     <x:row r="33" spans="1:2">
       <x:c r="A33" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B33">
         <x:v>16</x:v>
@@ -7732,7 +7741,7 @@
     </x:row>
     <x:row r="34" spans="1:2">
       <x:c r="A34" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B34">
         <x:v>17</x:v>
@@ -7740,7 +7749,7 @@
     </x:row>
     <x:row r="35" spans="1:2">
       <x:c r="A35" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B35">
         <x:v>17</x:v>
@@ -7748,7 +7757,7 @@
     </x:row>
     <x:row r="36" spans="1:2">
       <x:c r="A36" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B36">
         <x:v>18</x:v>
@@ -7756,7 +7765,7 @@
     </x:row>
     <x:row r="37" spans="1:2">
       <x:c r="A37" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B37">
         <x:v>18</x:v>
@@ -7764,7 +7773,7 @@
     </x:row>
     <x:row r="38" spans="1:2">
       <x:c r="A38" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B38">
         <x:v>19</x:v>
@@ -7772,7 +7781,7 @@
     </x:row>
     <x:row r="39" spans="1:2">
       <x:c r="A39" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B39">
         <x:v>19</x:v>
@@ -7780,7 +7789,7 @@
     </x:row>
     <x:row r="40" spans="1:2">
       <x:c r="A40" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B40">
         <x:v>20</x:v>
@@ -7788,7 +7797,7 @@
     </x:row>
     <x:row r="41" spans="1:2">
       <x:c r="A41" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B41">
         <x:v>20</x:v>
@@ -7796,7 +7805,7 @@
     </x:row>
     <x:row r="42" spans="1:2">
       <x:c r="A42" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B42">
         <x:v>21</x:v>
@@ -7804,7 +7813,7 @@
     </x:row>
     <x:row r="43" spans="1:2">
       <x:c r="A43" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B43">
         <x:v>21</x:v>
@@ -7812,7 +7821,7 @@
     </x:row>
     <x:row r="44" spans="1:2">
       <x:c r="A44" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B44">
         <x:v>22</x:v>
@@ -7820,7 +7829,7 @@
     </x:row>
     <x:row r="45" spans="1:2">
       <x:c r="A45" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B45">
         <x:v>22</x:v>
@@ -7828,7 +7837,7 @@
     </x:row>
     <x:row r="46" spans="1:2">
       <x:c r="A46" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B46">
         <x:v>23</x:v>
@@ -7836,7 +7845,7 @@
     </x:row>
     <x:row r="47" spans="1:2">
       <x:c r="A47" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B47">
         <x:v>23</x:v>
@@ -7844,7 +7853,7 @@
     </x:row>
     <x:row r="48" spans="1:2">
       <x:c r="A48" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B48">
         <x:v>24</x:v>
@@ -7852,7 +7861,7 @@
     </x:row>
     <x:row r="49" spans="1:2">
       <x:c r="A49" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B49">
         <x:v>24</x:v>
@@ -7860,7 +7869,7 @@
     </x:row>
     <x:row r="50" spans="1:2">
       <x:c r="A50" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B50">
         <x:v>25</x:v>
@@ -7868,7 +7877,7 @@
     </x:row>
     <x:row r="51" spans="1:2">
       <x:c r="A51" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B51">
         <x:v>25</x:v>
@@ -7876,7 +7885,7 @@
     </x:row>
     <x:row r="52" spans="1:2">
       <x:c r="A52" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B52">
         <x:v>26</x:v>
@@ -7884,7 +7893,7 @@
     </x:row>
     <x:row r="53" spans="1:2">
       <x:c r="A53" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B53">
         <x:v>26</x:v>
@@ -7892,7 +7901,7 @@
     </x:row>
     <x:row r="54" spans="1:2">
       <x:c r="A54" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B54">
         <x:v>27</x:v>
@@ -7900,7 +7909,7 @@
     </x:row>
     <x:row r="55" spans="1:2">
       <x:c r="A55" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B55">
         <x:v>27</x:v>
@@ -7908,7 +7917,7 @@
     </x:row>
     <x:row r="56" spans="1:2">
       <x:c r="A56" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B56">
         <x:v>28</x:v>
@@ -7916,7 +7925,7 @@
     </x:row>
     <x:row r="57" spans="1:2">
       <x:c r="A57" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B57">
         <x:v>28</x:v>
@@ -7924,7 +7933,7 @@
     </x:row>
     <x:row r="58" spans="1:2">
       <x:c r="A58" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B58">
         <x:v>29</x:v>
@@ -7932,7 +7941,7 @@
     </x:row>
     <x:row r="59" spans="1:2">
       <x:c r="A59" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B59">
         <x:v>29</x:v>
@@ -7940,7 +7949,7 @@
     </x:row>
     <x:row r="60" spans="1:2">
       <x:c r="A60" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B60">
         <x:v>30</x:v>
@@ -7948,7 +7957,7 @@
     </x:row>
     <x:row r="61" spans="1:2">
       <x:c r="A61" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B61">
         <x:v>30</x:v>
@@ -7956,7 +7965,7 @@
     </x:row>
     <x:row r="62" spans="1:2">
       <x:c r="A62" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B62">
         <x:v>31</x:v>
@@ -7964,7 +7973,7 @@
     </x:row>
     <x:row r="63" spans="1:2">
       <x:c r="A63" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B63">
         <x:v>31</x:v>
@@ -7972,7 +7981,7 @@
     </x:row>
     <x:row r="64" spans="1:2">
       <x:c r="A64" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B64">
         <x:v>32</x:v>
@@ -7980,7 +7989,7 @@
     </x:row>
     <x:row r="65" spans="1:2">
       <x:c r="A65" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B65">
         <x:v>32</x:v>
@@ -7988,7 +7997,7 @@
     </x:row>
     <x:row r="66" spans="1:2">
       <x:c r="A66" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B66">
         <x:v>33</x:v>
@@ -7996,7 +8005,7 @@
     </x:row>
     <x:row r="67" spans="1:2">
       <x:c r="A67" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B67">
         <x:v>33</x:v>
@@ -8004,7 +8013,7 @@
     </x:row>
     <x:row r="68" spans="1:2">
       <x:c r="A68" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B68">
         <x:v>34</x:v>
@@ -8012,7 +8021,7 @@
     </x:row>
     <x:row r="69" spans="1:2">
       <x:c r="A69" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B69">
         <x:v>34</x:v>
@@ -8020,7 +8029,7 @@
     </x:row>
     <x:row r="70" spans="1:2">
       <x:c r="A70" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B70">
         <x:v>35</x:v>
@@ -8028,7 +8037,7 @@
     </x:row>
     <x:row r="71" spans="1:2">
       <x:c r="A71" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B71">
         <x:v>35</x:v>
@@ -8036,7 +8045,7 @@
     </x:row>
     <x:row r="72" spans="1:2">
       <x:c r="A72" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B72">
         <x:v>36</x:v>
@@ -8044,7 +8053,7 @@
     </x:row>
     <x:row r="73" spans="1:2">
       <x:c r="A73" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B73">
         <x:v>36</x:v>
@@ -8052,7 +8061,7 @@
     </x:row>
     <x:row r="74" spans="1:2">
       <x:c r="A74" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B74">
         <x:v>37</x:v>
@@ -8060,7 +8069,7 @@
     </x:row>
     <x:row r="75" spans="1:2">
       <x:c r="A75" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B75">
         <x:v>37</x:v>
@@ -8068,7 +8077,7 @@
     </x:row>
     <x:row r="76" spans="1:2">
       <x:c r="A76" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B76">
         <x:v>38</x:v>
@@ -8076,7 +8085,7 @@
     </x:row>
     <x:row r="77" spans="1:2">
       <x:c r="A77" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B77">
         <x:v>38</x:v>
@@ -8084,7 +8093,7 @@
     </x:row>
     <x:row r="78" spans="1:2">
       <x:c r="A78" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B78">
         <x:v>39</x:v>
@@ -8092,7 +8101,7 @@
     </x:row>
     <x:row r="79" spans="1:2">
       <x:c r="A79" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B79">
         <x:v>39</x:v>
@@ -8100,7 +8109,7 @@
     </x:row>
     <x:row r="80" spans="1:2">
       <x:c r="A80" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B80">
         <x:v>40</x:v>
@@ -8108,7 +8117,7 @@
     </x:row>
     <x:row r="81" spans="1:2">
       <x:c r="A81" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B81">
         <x:v>40</x:v>
@@ -8116,7 +8125,7 @@
     </x:row>
     <x:row r="82" spans="1:2">
       <x:c r="A82" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B82">
         <x:v>41</x:v>
@@ -8124,7 +8133,7 @@
     </x:row>
     <x:row r="83" spans="1:2">
       <x:c r="A83" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B83">
         <x:v>41</x:v>
@@ -8132,7 +8141,7 @@
     </x:row>
     <x:row r="84" spans="1:2">
       <x:c r="A84" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B84">
         <x:v>42</x:v>
@@ -8140,7 +8149,7 @@
     </x:row>
     <x:row r="85" spans="1:2">
       <x:c r="A85" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B85">
         <x:v>42</x:v>
@@ -8148,7 +8157,7 @@
     </x:row>
     <x:row r="86" spans="1:2">
       <x:c r="A86" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B86">
         <x:v>43</x:v>
@@ -8156,7 +8165,7 @@
     </x:row>
     <x:row r="87" spans="1:2">
       <x:c r="A87" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B87">
         <x:v>43</x:v>
@@ -8164,7 +8173,7 @@
     </x:row>
     <x:row r="88" spans="1:2">
       <x:c r="A88" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B88">
         <x:v>44</x:v>
@@ -8172,7 +8181,7 @@
     </x:row>
     <x:row r="89" spans="1:2">
       <x:c r="A89" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B89">
         <x:v>44</x:v>
@@ -8180,7 +8189,7 @@
     </x:row>
     <x:row r="90" spans="1:2">
       <x:c r="A90" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B90">
         <x:v>45</x:v>
@@ -8188,7 +8197,7 @@
     </x:row>
     <x:row r="91" spans="1:2">
       <x:c r="A91" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B91">
         <x:v>45</x:v>
@@ -8196,7 +8205,7 @@
     </x:row>
     <x:row r="92" spans="1:2">
       <x:c r="A92" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B92">
         <x:v>46</x:v>
@@ -8204,7 +8213,7 @@
     </x:row>
     <x:row r="93" spans="1:2">
       <x:c r="A93" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B93">
         <x:v>46</x:v>
@@ -8212,7 +8221,7 @@
     </x:row>
     <x:row r="94" spans="1:2">
       <x:c r="A94" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B94">
         <x:v>47</x:v>
@@ -8220,7 +8229,7 @@
     </x:row>
     <x:row r="95" spans="1:2">
       <x:c r="A95" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B95">
         <x:v>47</x:v>
@@ -8228,7 +8237,7 @@
     </x:row>
     <x:row r="96" spans="1:2">
       <x:c r="A96" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B96">
         <x:v>48</x:v>
@@ -8236,7 +8245,7 @@
     </x:row>
     <x:row r="97" spans="1:2">
       <x:c r="A97" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B97">
         <x:v>48</x:v>
@@ -8244,7 +8253,7 @@
     </x:row>
     <x:row r="98" spans="1:2">
       <x:c r="A98" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B98">
         <x:v>49</x:v>
@@ -8252,7 +8261,7 @@
     </x:row>
     <x:row r="99" spans="1:2">
       <x:c r="A99" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B99">
         <x:v>49</x:v>
@@ -8260,7 +8269,7 @@
     </x:row>
     <x:row r="100" spans="1:2">
       <x:c r="A100" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B100">
         <x:v>50</x:v>
@@ -8268,7 +8277,7 @@
     </x:row>
     <x:row r="101" spans="1:2">
       <x:c r="A101" t="s">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B101">
         <x:v>50</x:v>
@@ -8293,13 +8302,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>225</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>229</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -8307,7 +8316,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>31</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2">
         <x:v>0</x:v>
@@ -8318,7 +8327,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>73</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C3">
         <x:v>0</x:v>
@@ -8329,7 +8338,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>85</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C4">
         <x:v>0</x:v>
@@ -8340,7 +8349,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>72</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C5">
         <x:v>0</x:v>
@@ -8351,7 +8360,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>81</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C6">
         <x:v>1</x:v>
@@ -8362,7 +8371,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>71</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C7">
         <x:v>1</x:v>
@@ -8373,7 +8382,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>94</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C8">
         <x:v>1</x:v>
@@ -8384,7 +8393,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>87</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C9">
         <x:v>1</x:v>
@@ -8395,7 +8404,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C10">
         <x:v>5</x:v>
@@ -8406,7 +8415,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C11">
         <x:v>5</x:v>
@@ -8417,7 +8426,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C12">
         <x:v>5</x:v>
@@ -8428,7 +8437,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C13">
         <x:v>5</x:v>
@@ -8439,7 +8448,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C14">
         <x:v>6</x:v>
@@ -8450,7 +8459,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C15">
         <x:v>6</x:v>
@@ -8461,7 +8470,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C16">
         <x:v>6</x:v>
@@ -8472,7 +8481,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C17">
         <x:v>7</x:v>
@@ -8483,7 +8492,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C18">
         <x:v>7</x:v>
@@ -8494,7 +8503,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C19">
         <x:v>7</x:v>
@@ -8505,7 +8514,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" t="s">
-        <x:v>32</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C20">
         <x:v>7</x:v>
@@ -8527,7 +8536,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" t="s">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C22">
         <x:v>8</x:v>
@@ -8538,7 +8547,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" t="s">
-        <x:v>10</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C23">
         <x:v>8</x:v>
@@ -8549,7 +8558,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" t="s">
-        <x:v>37</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C24">
         <x:v>8</x:v>
